--- a/Tests/Validation/Wheat/data/FAR HYC W18-02-2a.xlsx
+++ b/Tests/Validation/Wheat/data/FAR HYC W18-02-2a.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Observed" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Tests/Validation/Wheat/data/FAR HYC W18-02-2a.xlsx
+++ b/Tests/Validation/Wheat/data/FAR HYC W18-02-2a.xlsx
@@ -498,12 +498,12 @@
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>Wheat.Structure.Height</t>
+          <t>Wheat.Leaf.Height</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t>Wheat.Structure.Height.se</t>
+          <t>Wheat.Leaf.Height.se</t>
         </is>
       </c>
       <c r="Q1" t="inlineStr">

--- a/Tests/Validation/Wheat/data/FAR HYC W18-02-2a.xlsx
+++ b/Tests/Validation/Wheat/data/FAR HYC W18-02-2a.xlsx
@@ -17,8 +17,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,13 +58,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -481,7 +482,7 @@
       </c>
       <c r="I1" s="2" t="inlineStr">
         <is>
-          <t>NDVIModel.Script.NDVI</t>
+          <t>NDVI.Value</t>
         </is>
       </c>
       <c r="J1" s="2" t="inlineStr">
@@ -556,7 +557,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvAnapurna</t>
         </is>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="4" t="n">
         <v>43270</v>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -590,7 +591,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvAnapurna</t>
         </is>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="4" t="n">
         <v>43290</v>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -624,7 +625,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvAnapurna</t>
         </is>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="4" t="n">
         <v>43306</v>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -658,7 +659,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvAnapurna</t>
         </is>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="4" t="n">
         <v>43341</v>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -692,7 +693,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvAnapurna</t>
         </is>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="4" t="n">
         <v>43381</v>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -726,7 +727,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvAnapurna</t>
         </is>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="4" t="n">
         <v>43399</v>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -758,7 +759,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvAnapurna</t>
         </is>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="4" t="n">
         <v>43413</v>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -792,7 +793,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvAnapurna</t>
         </is>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B9" s="4" t="n">
         <v>43440</v>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -826,7 +827,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvAnapurna</t>
         </is>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B10" s="4" t="n">
         <v>43446</v>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -860,7 +861,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvAnapurna</t>
         </is>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B11" s="4" t="n">
         <v>43455</v>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -894,7 +895,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvAnapurna</t>
         </is>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B12" s="4" t="n">
         <v>43480</v>
       </c>
       <c r="C12" t="inlineStr">
@@ -932,7 +933,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvAnapurna</t>
         </is>
       </c>
-      <c r="B13" s="3" t="n">
+      <c r="B13" s="4" t="n">
         <v>43495</v>
       </c>
       <c r="C13" t="inlineStr">
@@ -986,7 +987,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvAccroc</t>
         </is>
       </c>
-      <c r="B14" s="3" t="n">
+      <c r="B14" s="4" t="n">
         <v>43270</v>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -1020,7 +1021,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvAccroc</t>
         </is>
       </c>
-      <c r="B15" s="3" t="n">
+      <c r="B15" s="4" t="n">
         <v>43290</v>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -1054,7 +1055,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvAccroc</t>
         </is>
       </c>
-      <c r="B16" s="3" t="n">
+      <c r="B16" s="4" t="n">
         <v>43306</v>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -1088,7 +1089,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvAccroc</t>
         </is>
       </c>
-      <c r="B17" s="3" t="n">
+      <c r="B17" s="4" t="n">
         <v>43341</v>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -1122,7 +1123,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvAccroc</t>
         </is>
       </c>
-      <c r="B18" s="3" t="n">
+      <c r="B18" s="4" t="n">
         <v>43381</v>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -1156,7 +1157,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvAccroc</t>
         </is>
       </c>
-      <c r="B19" s="3" t="n">
+      <c r="B19" s="4" t="n">
         <v>43399</v>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -1188,7 +1189,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvAccroc</t>
         </is>
       </c>
-      <c r="B20" s="3" t="n">
+      <c r="B20" s="4" t="n">
         <v>43413</v>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -1222,7 +1223,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvAccroc</t>
         </is>
       </c>
-      <c r="B21" s="3" t="n">
+      <c r="B21" s="4" t="n">
         <v>43440</v>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -1256,7 +1257,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvAccroc</t>
         </is>
       </c>
-      <c r="B22" s="3" t="n">
+      <c r="B22" s="4" t="n">
         <v>43446</v>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -1290,7 +1291,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvAccroc</t>
         </is>
       </c>
-      <c r="B23" s="3" t="n">
+      <c r="B23" s="4" t="n">
         <v>43455</v>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -1324,7 +1325,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvAccroc</t>
         </is>
       </c>
-      <c r="B24" s="3" t="n">
+      <c r="B24" s="4" t="n">
         <v>43480</v>
       </c>
       <c r="C24" t="inlineStr">
@@ -1362,7 +1363,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvAccroc</t>
         </is>
       </c>
-      <c r="B25" s="3" t="n">
+      <c r="B25" s="4" t="n">
         <v>43495</v>
       </c>
       <c r="C25" t="inlineStr">
@@ -1416,7 +1417,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvKittyhawk</t>
         </is>
       </c>
-      <c r="B26" s="3" t="n">
+      <c r="B26" s="4" t="n">
         <v>43270</v>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -1450,7 +1451,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvKittyhawk</t>
         </is>
       </c>
-      <c r="B27" s="3" t="n">
+      <c r="B27" s="4" t="n">
         <v>43290</v>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -1484,7 +1485,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvKittyhawk</t>
         </is>
       </c>
-      <c r="B28" s="3" t="n">
+      <c r="B28" s="4" t="n">
         <v>43306</v>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -1518,7 +1519,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvKittyhawk</t>
         </is>
       </c>
-      <c r="B29" s="3" t="n">
+      <c r="B29" s="4" t="n">
         <v>43341</v>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -1552,7 +1553,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvKittyhawk</t>
         </is>
       </c>
-      <c r="B30" s="3" t="n">
+      <c r="B30" s="4" t="n">
         <v>43381</v>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -1586,7 +1587,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvKittyhawk</t>
         </is>
       </c>
-      <c r="B31" s="3" t="n">
+      <c r="B31" s="4" t="n">
         <v>43399</v>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -1618,7 +1619,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvKittyhawk</t>
         </is>
       </c>
-      <c r="B32" s="3" t="n">
+      <c r="B32" s="4" t="n">
         <v>43413</v>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -1652,7 +1653,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvKittyhawk</t>
         </is>
       </c>
-      <c r="B33" s="3" t="n">
+      <c r="B33" s="4" t="n">
         <v>43440</v>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -1686,7 +1687,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvKittyhawk</t>
         </is>
       </c>
-      <c r="B34" s="3" t="n">
+      <c r="B34" s="4" t="n">
         <v>43446</v>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -1720,7 +1721,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvKittyhawk</t>
         </is>
       </c>
-      <c r="B35" s="3" t="n">
+      <c r="B35" s="4" t="n">
         <v>43455</v>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -1754,7 +1755,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvKittyhawk</t>
         </is>
       </c>
-      <c r="B36" s="3" t="n">
+      <c r="B36" s="4" t="n">
         <v>43480</v>
       </c>
       <c r="C36" t="inlineStr">
@@ -1792,7 +1793,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvKittyhawk</t>
         </is>
       </c>
-      <c r="B37" s="3" t="n">
+      <c r="B37" s="4" t="n">
         <v>43495</v>
       </c>
       <c r="C37" t="inlineStr">
@@ -1846,7 +1847,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvRelay</t>
         </is>
       </c>
-      <c r="B38" s="3" t="n">
+      <c r="B38" s="4" t="n">
         <v>43270</v>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -1880,7 +1881,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvRelay</t>
         </is>
       </c>
-      <c r="B39" s="3" t="n">
+      <c r="B39" s="4" t="n">
         <v>43290</v>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -1914,7 +1915,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvRelay</t>
         </is>
       </c>
-      <c r="B40" s="3" t="n">
+      <c r="B40" s="4" t="n">
         <v>43306</v>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -1948,7 +1949,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvRelay</t>
         </is>
       </c>
-      <c r="B41" s="3" t="n">
+      <c r="B41" s="4" t="n">
         <v>43341</v>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -1982,7 +1983,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvRelay</t>
         </is>
       </c>
-      <c r="B42" s="3" t="n">
+      <c r="B42" s="4" t="n">
         <v>43381</v>
       </c>
       <c r="C42" t="inlineStr"/>
@@ -2016,7 +2017,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvRelay</t>
         </is>
       </c>
-      <c r="B43" s="3" t="n">
+      <c r="B43" s="4" t="n">
         <v>43399</v>
       </c>
       <c r="C43" t="inlineStr"/>
@@ -2048,7 +2049,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvRelay</t>
         </is>
       </c>
-      <c r="B44" s="3" t="n">
+      <c r="B44" s="4" t="n">
         <v>43430</v>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -2082,7 +2083,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvRelay</t>
         </is>
       </c>
-      <c r="B45" s="3" t="n">
+      <c r="B45" s="4" t="n">
         <v>43440</v>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -2116,7 +2117,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvRelay</t>
         </is>
       </c>
-      <c r="B46" s="3" t="n">
+      <c r="B46" s="4" t="n">
         <v>43446</v>
       </c>
       <c r="C46" t="inlineStr"/>
@@ -2150,7 +2151,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvRelay</t>
         </is>
       </c>
-      <c r="B47" s="3" t="n">
+      <c r="B47" s="4" t="n">
         <v>43455</v>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -2184,7 +2185,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvRelay</t>
         </is>
       </c>
-      <c r="B48" s="3" t="n">
+      <c r="B48" s="4" t="n">
         <v>43480</v>
       </c>
       <c r="C48" t="inlineStr">
@@ -2222,7 +2223,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvRelay</t>
         </is>
       </c>
-      <c r="B49" s="3" t="n">
+      <c r="B49" s="4" t="n">
         <v>43495</v>
       </c>
       <c r="C49" t="inlineStr">
@@ -2276,7 +2277,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvCalabro</t>
         </is>
       </c>
-      <c r="B50" s="3" t="n">
+      <c r="B50" s="4" t="n">
         <v>43270</v>
       </c>
       <c r="C50" t="inlineStr"/>
@@ -2310,7 +2311,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvCalabro</t>
         </is>
       </c>
-      <c r="B51" s="3" t="n">
+      <c r="B51" s="4" t="n">
         <v>43290</v>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -2344,7 +2345,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvCalabro</t>
         </is>
       </c>
-      <c r="B52" s="3" t="n">
+      <c r="B52" s="4" t="n">
         <v>43306</v>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -2378,7 +2379,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvCalabro</t>
         </is>
       </c>
-      <c r="B53" s="3" t="n">
+      <c r="B53" s="4" t="n">
         <v>43341</v>
       </c>
       <c r="C53" t="inlineStr"/>
@@ -2412,7 +2413,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvCalabro</t>
         </is>
       </c>
-      <c r="B54" s="3" t="n">
+      <c r="B54" s="4" t="n">
         <v>43381</v>
       </c>
       <c r="C54" t="inlineStr"/>
@@ -2446,7 +2447,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvCalabro</t>
         </is>
       </c>
-      <c r="B55" s="3" t="n">
+      <c r="B55" s="4" t="n">
         <v>43399</v>
       </c>
       <c r="C55" t="inlineStr"/>
@@ -2478,7 +2479,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvCalabro</t>
         </is>
       </c>
-      <c r="B56" s="3" t="n">
+      <c r="B56" s="4" t="n">
         <v>43430</v>
       </c>
       <c r="C56" t="inlineStr"/>
@@ -2512,7 +2513,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvCalabro</t>
         </is>
       </c>
-      <c r="B57" s="3" t="n">
+      <c r="B57" s="4" t="n">
         <v>43440</v>
       </c>
       <c r="C57" t="inlineStr"/>
@@ -2546,7 +2547,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvCalabro</t>
         </is>
       </c>
-      <c r="B58" s="3" t="n">
+      <c r="B58" s="4" t="n">
         <v>43446</v>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -2580,7 +2581,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvCalabro</t>
         </is>
       </c>
-      <c r="B59" s="3" t="n">
+      <c r="B59" s="4" t="n">
         <v>43455</v>
       </c>
       <c r="C59" t="inlineStr"/>
@@ -2614,7 +2615,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvCalabro</t>
         </is>
       </c>
-      <c r="B60" s="3" t="n">
+      <c r="B60" s="4" t="n">
         <v>43480</v>
       </c>
       <c r="C60" t="inlineStr">
@@ -2652,7 +2653,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvCalabro</t>
         </is>
       </c>
-      <c r="B61" s="3" t="n">
+      <c r="B61" s="4" t="n">
         <v>43495</v>
       </c>
       <c r="C61" t="inlineStr">
@@ -2706,7 +2707,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvAnapurna</t>
         </is>
       </c>
-      <c r="B62" s="3" t="n">
+      <c r="B62" s="4" t="n">
         <v>43237</v>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -2740,7 +2741,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvAnapurna</t>
         </is>
       </c>
-      <c r="B63" s="3" t="n">
+      <c r="B63" s="4" t="n">
         <v>43270</v>
       </c>
       <c r="C63" t="inlineStr"/>
@@ -2774,7 +2775,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvAnapurna</t>
         </is>
       </c>
-      <c r="B64" s="3" t="n">
+      <c r="B64" s="4" t="n">
         <v>43290</v>
       </c>
       <c r="C64" t="inlineStr"/>
@@ -2808,7 +2809,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvAnapurna</t>
         </is>
       </c>
-      <c r="B65" s="3" t="n">
+      <c r="B65" s="4" t="n">
         <v>43306</v>
       </c>
       <c r="C65" t="inlineStr"/>
@@ -2842,7 +2843,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvAnapurna</t>
         </is>
       </c>
-      <c r="B66" s="3" t="n">
+      <c r="B66" s="4" t="n">
         <v>43341</v>
       </c>
       <c r="C66" t="inlineStr"/>
@@ -2876,7 +2877,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvAnapurna</t>
         </is>
       </c>
-      <c r="B67" s="3" t="n">
+      <c r="B67" s="4" t="n">
         <v>43364</v>
       </c>
       <c r="C67" t="inlineStr"/>
@@ -2910,7 +2911,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvAnapurna</t>
         </is>
       </c>
-      <c r="B68" s="3" t="n">
+      <c r="B68" s="4" t="n">
         <v>43381</v>
       </c>
       <c r="C68" t="inlineStr"/>
@@ -2944,7 +2945,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvAnapurna</t>
         </is>
       </c>
-      <c r="B69" s="3" t="n">
+      <c r="B69" s="4" t="n">
         <v>43413</v>
       </c>
       <c r="C69" t="inlineStr"/>
@@ -2978,7 +2979,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvAnapurna</t>
         </is>
       </c>
-      <c r="B70" s="3" t="n">
+      <c r="B70" s="4" t="n">
         <v>43440</v>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -3012,7 +3013,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvAnapurna</t>
         </is>
       </c>
-      <c r="B71" s="3" t="n">
+      <c r="B71" s="4" t="n">
         <v>43446</v>
       </c>
       <c r="C71" t="inlineStr"/>
@@ -3046,7 +3047,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvAnapurna</t>
         </is>
       </c>
-      <c r="B72" s="3" t="n">
+      <c r="B72" s="4" t="n">
         <v>43455</v>
       </c>
       <c r="C72" t="inlineStr"/>
@@ -3080,7 +3081,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvAnapurna</t>
         </is>
       </c>
-      <c r="B73" s="3" t="n">
+      <c r="B73" s="4" t="n">
         <v>43480</v>
       </c>
       <c r="C73" t="inlineStr">
@@ -3118,7 +3119,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvAnapurna</t>
         </is>
       </c>
-      <c r="B74" s="3" t="n">
+      <c r="B74" s="4" t="n">
         <v>43495</v>
       </c>
       <c r="C74" t="inlineStr">
@@ -3172,7 +3173,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvKittyhawk</t>
         </is>
       </c>
-      <c r="B75" s="3" t="n">
+      <c r="B75" s="4" t="n">
         <v>43237</v>
       </c>
       <c r="C75" t="inlineStr"/>
@@ -3206,7 +3207,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvKittyhawk</t>
         </is>
       </c>
-      <c r="B76" s="3" t="n">
+      <c r="B76" s="4" t="n">
         <v>43270</v>
       </c>
       <c r="C76" t="inlineStr"/>
@@ -3240,7 +3241,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvKittyhawk</t>
         </is>
       </c>
-      <c r="B77" s="3" t="n">
+      <c r="B77" s="4" t="n">
         <v>43290</v>
       </c>
       <c r="C77" t="inlineStr"/>
@@ -3274,7 +3275,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvKittyhawk</t>
         </is>
       </c>
-      <c r="B78" s="3" t="n">
+      <c r="B78" s="4" t="n">
         <v>43306</v>
       </c>
       <c r="C78" t="inlineStr"/>
@@ -3308,7 +3309,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvKittyhawk</t>
         </is>
       </c>
-      <c r="B79" s="3" t="n">
+      <c r="B79" s="4" t="n">
         <v>43341</v>
       </c>
       <c r="C79" t="inlineStr"/>
@@ -3342,7 +3343,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvKittyhawk</t>
         </is>
       </c>
-      <c r="B80" s="3" t="n">
+      <c r="B80" s="4" t="n">
         <v>43364</v>
       </c>
       <c r="C80" t="inlineStr"/>
@@ -3376,7 +3377,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvKittyhawk</t>
         </is>
       </c>
-      <c r="B81" s="3" t="n">
+      <c r="B81" s="4" t="n">
         <v>43381</v>
       </c>
       <c r="C81" t="inlineStr"/>
@@ -3410,7 +3411,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvKittyhawk</t>
         </is>
       </c>
-      <c r="B82" s="3" t="n">
+      <c r="B82" s="4" t="n">
         <v>43413</v>
       </c>
       <c r="C82" t="inlineStr"/>
@@ -3444,7 +3445,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvKittyhawk</t>
         </is>
       </c>
-      <c r="B83" s="3" t="n">
+      <c r="B83" s="4" t="n">
         <v>43440</v>
       </c>
       <c r="C83" t="inlineStr"/>
@@ -3478,7 +3479,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvKittyhawk</t>
         </is>
       </c>
-      <c r="B84" s="3" t="n">
+      <c r="B84" s="4" t="n">
         <v>43446</v>
       </c>
       <c r="C84" t="inlineStr"/>
@@ -3512,7 +3513,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvKittyhawk</t>
         </is>
       </c>
-      <c r="B85" s="3" t="n">
+      <c r="B85" s="4" t="n">
         <v>43455</v>
       </c>
       <c r="C85" t="inlineStr"/>
@@ -3546,7 +3547,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvKittyhawk</t>
         </is>
       </c>
-      <c r="B86" s="3" t="n">
+      <c r="B86" s="4" t="n">
         <v>43480</v>
       </c>
       <c r="C86" t="inlineStr">
@@ -3584,7 +3585,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvKittyhawk</t>
         </is>
       </c>
-      <c r="B87" s="3" t="n">
+      <c r="B87" s="4" t="n">
         <v>43495</v>
       </c>
       <c r="C87" t="inlineStr">
@@ -3638,7 +3639,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvRelay</t>
         </is>
       </c>
-      <c r="B88" s="3" t="n">
+      <c r="B88" s="4" t="n">
         <v>43237</v>
       </c>
       <c r="C88" t="inlineStr"/>
@@ -3672,7 +3673,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvRelay</t>
         </is>
       </c>
-      <c r="B89" s="3" t="n">
+      <c r="B89" s="4" t="n">
         <v>43270</v>
       </c>
       <c r="C89" t="inlineStr"/>
@@ -3706,7 +3707,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvRelay</t>
         </is>
       </c>
-      <c r="B90" s="3" t="n">
+      <c r="B90" s="4" t="n">
         <v>43290</v>
       </c>
       <c r="C90" t="inlineStr"/>
@@ -3740,7 +3741,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvRelay</t>
         </is>
       </c>
-      <c r="B91" s="3" t="n">
+      <c r="B91" s="4" t="n">
         <v>43306</v>
       </c>
       <c r="C91" t="inlineStr"/>
@@ -3774,7 +3775,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvRelay</t>
         </is>
       </c>
-      <c r="B92" s="3" t="n">
+      <c r="B92" s="4" t="n">
         <v>43341</v>
       </c>
       <c r="C92" t="inlineStr"/>
@@ -3808,7 +3809,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvRelay</t>
         </is>
       </c>
-      <c r="B93" s="3" t="n">
+      <c r="B93" s="4" t="n">
         <v>43364</v>
       </c>
       <c r="C93" t="inlineStr"/>
@@ -3842,7 +3843,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvRelay</t>
         </is>
       </c>
-      <c r="B94" s="3" t="n">
+      <c r="B94" s="4" t="n">
         <v>43381</v>
       </c>
       <c r="C94" t="inlineStr"/>
@@ -3876,7 +3877,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvRelay</t>
         </is>
       </c>
-      <c r="B95" s="3" t="n">
+      <c r="B95" s="4" t="n">
         <v>43430</v>
       </c>
       <c r="C95" t="inlineStr"/>
@@ -3910,7 +3911,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvRelay</t>
         </is>
       </c>
-      <c r="B96" s="3" t="n">
+      <c r="B96" s="4" t="n">
         <v>43440</v>
       </c>
       <c r="C96" t="inlineStr"/>
@@ -3944,7 +3945,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvRelay</t>
         </is>
       </c>
-      <c r="B97" s="3" t="n">
+      <c r="B97" s="4" t="n">
         <v>43446</v>
       </c>
       <c r="C97" t="inlineStr"/>
@@ -3978,7 +3979,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvRelay</t>
         </is>
       </c>
-      <c r="B98" s="3" t="n">
+      <c r="B98" s="4" t="n">
         <v>43455</v>
       </c>
       <c r="C98" t="inlineStr"/>
@@ -4012,7 +4013,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvRelay</t>
         </is>
       </c>
-      <c r="B99" s="3" t="n">
+      <c r="B99" s="4" t="n">
         <v>43480</v>
       </c>
       <c r="C99" t="inlineStr">
@@ -4050,7 +4051,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvRelay</t>
         </is>
       </c>
-      <c r="B100" s="3" t="n">
+      <c r="B100" s="4" t="n">
         <v>43495</v>
       </c>
       <c r="C100" t="inlineStr">
@@ -4104,7 +4105,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B101" s="3" t="n">
+      <c r="B101" s="4" t="n">
         <v>43237</v>
       </c>
       <c r="C101" t="inlineStr"/>
@@ -4138,7 +4139,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B102" s="3" t="n">
+      <c r="B102" s="4" t="n">
         <v>43270</v>
       </c>
       <c r="C102" t="inlineStr"/>
@@ -4172,7 +4173,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B103" s="3" t="n">
+      <c r="B103" s="4" t="n">
         <v>43290</v>
       </c>
       <c r="C103" t="inlineStr"/>
@@ -4206,7 +4207,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B104" s="3" t="n">
+      <c r="B104" s="4" t="n">
         <v>43306</v>
       </c>
       <c r="C104" t="inlineStr"/>
@@ -4240,7 +4241,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B105" s="3" t="n">
+      <c r="B105" s="4" t="n">
         <v>43341</v>
       </c>
       <c r="C105" t="inlineStr"/>
@@ -4274,7 +4275,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B106" s="3" t="n">
+      <c r="B106" s="4" t="n">
         <v>43364</v>
       </c>
       <c r="C106" t="inlineStr"/>
@@ -4308,7 +4309,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B107" s="3" t="n">
+      <c r="B107" s="4" t="n">
         <v>43381</v>
       </c>
       <c r="C107" t="inlineStr"/>
@@ -4342,7 +4343,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B108" s="3" t="n">
+      <c r="B108" s="4" t="n">
         <v>43413</v>
       </c>
       <c r="C108" t="inlineStr"/>
@@ -4376,7 +4377,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B109" s="3" t="n">
+      <c r="B109" s="4" t="n">
         <v>43440</v>
       </c>
       <c r="C109" t="inlineStr"/>
@@ -4410,7 +4411,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B110" s="3" t="n">
+      <c r="B110" s="4" t="n">
         <v>43446</v>
       </c>
       <c r="C110" t="inlineStr"/>
@@ -4444,7 +4445,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B111" s="3" t="n">
+      <c r="B111" s="4" t="n">
         <v>43455</v>
       </c>
       <c r="C111" t="inlineStr"/>
@@ -4478,7 +4479,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B112" s="3" t="n">
+      <c r="B112" s="4" t="n">
         <v>43480</v>
       </c>
       <c r="C112" t="inlineStr">
@@ -4516,7 +4517,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B113" s="3" t="n">
+      <c r="B113" s="4" t="n">
         <v>43495</v>
       </c>
       <c r="C113" t="inlineStr">
@@ -4570,7 +4571,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvCalabro</t>
         </is>
       </c>
-      <c r="B114" s="3" t="n">
+      <c r="B114" s="4" t="n">
         <v>43237</v>
       </c>
       <c r="C114" t="inlineStr"/>
@@ -4604,7 +4605,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvCalabro</t>
         </is>
       </c>
-      <c r="B115" s="3" t="n">
+      <c r="B115" s="4" t="n">
         <v>43270</v>
       </c>
       <c r="C115" t="inlineStr"/>
@@ -4638,7 +4639,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvCalabro</t>
         </is>
       </c>
-      <c r="B116" s="3" t="n">
+      <c r="B116" s="4" t="n">
         <v>43290</v>
       </c>
       <c r="C116" t="inlineStr"/>
@@ -4672,7 +4673,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvCalabro</t>
         </is>
       </c>
-      <c r="B117" s="3" t="n">
+      <c r="B117" s="4" t="n">
         <v>43306</v>
       </c>
       <c r="C117" t="inlineStr"/>
@@ -4706,7 +4707,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvCalabro</t>
         </is>
       </c>
-      <c r="B118" s="3" t="n">
+      <c r="B118" s="4" t="n">
         <v>43341</v>
       </c>
       <c r="C118" t="inlineStr"/>
@@ -4740,7 +4741,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvCalabro</t>
         </is>
       </c>
-      <c r="B119" s="3" t="n">
+      <c r="B119" s="4" t="n">
         <v>43364</v>
       </c>
       <c r="C119" t="inlineStr"/>
@@ -4774,7 +4775,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvCalabro</t>
         </is>
       </c>
-      <c r="B120" s="3" t="n">
+      <c r="B120" s="4" t="n">
         <v>43381</v>
       </c>
       <c r="C120" t="inlineStr"/>
@@ -4808,7 +4809,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvCalabro</t>
         </is>
       </c>
-      <c r="B121" s="3" t="n">
+      <c r="B121" s="4" t="n">
         <v>43430</v>
       </c>
       <c r="C121" t="inlineStr"/>
@@ -4842,7 +4843,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvCalabro</t>
         </is>
       </c>
-      <c r="B122" s="3" t="n">
+      <c r="B122" s="4" t="n">
         <v>43440</v>
       </c>
       <c r="C122" t="inlineStr"/>
@@ -4876,7 +4877,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvCalabro</t>
         </is>
       </c>
-      <c r="B123" s="3" t="n">
+      <c r="B123" s="4" t="n">
         <v>43446</v>
       </c>
       <c r="C123" t="inlineStr"/>
@@ -4910,7 +4911,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvCalabro</t>
         </is>
       </c>
-      <c r="B124" s="3" t="n">
+      <c r="B124" s="4" t="n">
         <v>43455</v>
       </c>
       <c r="C124" t="inlineStr"/>
@@ -4944,7 +4945,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvCalabro</t>
         </is>
       </c>
-      <c r="B125" s="3" t="n">
+      <c r="B125" s="4" t="n">
         <v>43480</v>
       </c>
       <c r="C125" t="inlineStr">
@@ -4982,7 +4983,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvCalabro</t>
         </is>
       </c>
-      <c r="B126" s="3" t="n">
+      <c r="B126" s="4" t="n">
         <v>43495</v>
       </c>
       <c r="C126" t="inlineStr">

--- a/Tests/Validation/Wheat/data/FAR HYC W18-02-2a.xlsx
+++ b/Tests/Validation/Wheat/data/FAR HYC W18-02-2a.xlsx
@@ -17,8 +17,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="166" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,14 +58,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -482,7 +481,7 @@
       </c>
       <c r="I1" s="2" t="inlineStr">
         <is>
-          <t>NDVI.Value</t>
+          <t>NDVIModel.Script.NDVI</t>
         </is>
       </c>
       <c r="J1" s="2" t="inlineStr">
@@ -557,7 +556,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvAnapurna</t>
         </is>
       </c>
-      <c r="B2" s="4" t="n">
+      <c r="B2" s="3" t="n">
         <v>43270</v>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -591,7 +590,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvAnapurna</t>
         </is>
       </c>
-      <c r="B3" s="4" t="n">
+      <c r="B3" s="3" t="n">
         <v>43290</v>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -625,7 +624,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvAnapurna</t>
         </is>
       </c>
-      <c r="B4" s="4" t="n">
+      <c r="B4" s="3" t="n">
         <v>43306</v>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -659,7 +658,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvAnapurna</t>
         </is>
       </c>
-      <c r="B5" s="4" t="n">
+      <c r="B5" s="3" t="n">
         <v>43341</v>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -693,7 +692,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvAnapurna</t>
         </is>
       </c>
-      <c r="B6" s="4" t="n">
+      <c r="B6" s="3" t="n">
         <v>43381</v>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -727,7 +726,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvAnapurna</t>
         </is>
       </c>
-      <c r="B7" s="4" t="n">
+      <c r="B7" s="3" t="n">
         <v>43399</v>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -759,7 +758,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvAnapurna</t>
         </is>
       </c>
-      <c r="B8" s="4" t="n">
+      <c r="B8" s="3" t="n">
         <v>43413</v>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -793,7 +792,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvAnapurna</t>
         </is>
       </c>
-      <c r="B9" s="4" t="n">
+      <c r="B9" s="3" t="n">
         <v>43440</v>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -827,7 +826,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvAnapurna</t>
         </is>
       </c>
-      <c r="B10" s="4" t="n">
+      <c r="B10" s="3" t="n">
         <v>43446</v>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -861,7 +860,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvAnapurna</t>
         </is>
       </c>
-      <c r="B11" s="4" t="n">
+      <c r="B11" s="3" t="n">
         <v>43455</v>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -895,7 +894,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvAnapurna</t>
         </is>
       </c>
-      <c r="B12" s="4" t="n">
+      <c r="B12" s="3" t="n">
         <v>43480</v>
       </c>
       <c r="C12" t="inlineStr">
@@ -933,7 +932,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvAnapurna</t>
         </is>
       </c>
-      <c r="B13" s="4" t="n">
+      <c r="B13" s="3" t="n">
         <v>43495</v>
       </c>
       <c r="C13" t="inlineStr">
@@ -987,7 +986,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvAccroc</t>
         </is>
       </c>
-      <c r="B14" s="4" t="n">
+      <c r="B14" s="3" t="n">
         <v>43270</v>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -1021,7 +1020,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvAccroc</t>
         </is>
       </c>
-      <c r="B15" s="4" t="n">
+      <c r="B15" s="3" t="n">
         <v>43290</v>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -1055,7 +1054,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvAccroc</t>
         </is>
       </c>
-      <c r="B16" s="4" t="n">
+      <c r="B16" s="3" t="n">
         <v>43306</v>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -1089,7 +1088,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvAccroc</t>
         </is>
       </c>
-      <c r="B17" s="4" t="n">
+      <c r="B17" s="3" t="n">
         <v>43341</v>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -1123,7 +1122,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvAccroc</t>
         </is>
       </c>
-      <c r="B18" s="4" t="n">
+      <c r="B18" s="3" t="n">
         <v>43381</v>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -1157,7 +1156,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvAccroc</t>
         </is>
       </c>
-      <c r="B19" s="4" t="n">
+      <c r="B19" s="3" t="n">
         <v>43399</v>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -1189,7 +1188,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvAccroc</t>
         </is>
       </c>
-      <c r="B20" s="4" t="n">
+      <c r="B20" s="3" t="n">
         <v>43413</v>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -1223,7 +1222,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvAccroc</t>
         </is>
       </c>
-      <c r="B21" s="4" t="n">
+      <c r="B21" s="3" t="n">
         <v>43440</v>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -1257,7 +1256,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvAccroc</t>
         </is>
       </c>
-      <c r="B22" s="4" t="n">
+      <c r="B22" s="3" t="n">
         <v>43446</v>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -1291,7 +1290,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvAccroc</t>
         </is>
       </c>
-      <c r="B23" s="4" t="n">
+      <c r="B23" s="3" t="n">
         <v>43455</v>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -1325,7 +1324,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvAccroc</t>
         </is>
       </c>
-      <c r="B24" s="4" t="n">
+      <c r="B24" s="3" t="n">
         <v>43480</v>
       </c>
       <c r="C24" t="inlineStr">
@@ -1363,7 +1362,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvAccroc</t>
         </is>
       </c>
-      <c r="B25" s="4" t="n">
+      <c r="B25" s="3" t="n">
         <v>43495</v>
       </c>
       <c r="C25" t="inlineStr">
@@ -1417,7 +1416,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvKittyhawk</t>
         </is>
       </c>
-      <c r="B26" s="4" t="n">
+      <c r="B26" s="3" t="n">
         <v>43270</v>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -1451,7 +1450,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvKittyhawk</t>
         </is>
       </c>
-      <c r="B27" s="4" t="n">
+      <c r="B27" s="3" t="n">
         <v>43290</v>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -1485,7 +1484,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvKittyhawk</t>
         </is>
       </c>
-      <c r="B28" s="4" t="n">
+      <c r="B28" s="3" t="n">
         <v>43306</v>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -1519,7 +1518,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvKittyhawk</t>
         </is>
       </c>
-      <c r="B29" s="4" t="n">
+      <c r="B29" s="3" t="n">
         <v>43341</v>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -1553,7 +1552,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvKittyhawk</t>
         </is>
       </c>
-      <c r="B30" s="4" t="n">
+      <c r="B30" s="3" t="n">
         <v>43381</v>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -1587,7 +1586,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvKittyhawk</t>
         </is>
       </c>
-      <c r="B31" s="4" t="n">
+      <c r="B31" s="3" t="n">
         <v>43399</v>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -1619,7 +1618,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvKittyhawk</t>
         </is>
       </c>
-      <c r="B32" s="4" t="n">
+      <c r="B32" s="3" t="n">
         <v>43413</v>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -1653,7 +1652,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvKittyhawk</t>
         </is>
       </c>
-      <c r="B33" s="4" t="n">
+      <c r="B33" s="3" t="n">
         <v>43440</v>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -1687,7 +1686,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvKittyhawk</t>
         </is>
       </c>
-      <c r="B34" s="4" t="n">
+      <c r="B34" s="3" t="n">
         <v>43446</v>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -1721,7 +1720,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvKittyhawk</t>
         </is>
       </c>
-      <c r="B35" s="4" t="n">
+      <c r="B35" s="3" t="n">
         <v>43455</v>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -1755,7 +1754,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvKittyhawk</t>
         </is>
       </c>
-      <c r="B36" s="4" t="n">
+      <c r="B36" s="3" t="n">
         <v>43480</v>
       </c>
       <c r="C36" t="inlineStr">
@@ -1793,7 +1792,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvKittyhawk</t>
         </is>
       </c>
-      <c r="B37" s="4" t="n">
+      <c r="B37" s="3" t="n">
         <v>43495</v>
       </c>
       <c r="C37" t="inlineStr">
@@ -1847,7 +1846,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvRelay</t>
         </is>
       </c>
-      <c r="B38" s="4" t="n">
+      <c r="B38" s="3" t="n">
         <v>43270</v>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -1881,7 +1880,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvRelay</t>
         </is>
       </c>
-      <c r="B39" s="4" t="n">
+      <c r="B39" s="3" t="n">
         <v>43290</v>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -1915,7 +1914,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvRelay</t>
         </is>
       </c>
-      <c r="B40" s="4" t="n">
+      <c r="B40" s="3" t="n">
         <v>43306</v>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -1949,7 +1948,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvRelay</t>
         </is>
       </c>
-      <c r="B41" s="4" t="n">
+      <c r="B41" s="3" t="n">
         <v>43341</v>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -1983,7 +1982,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvRelay</t>
         </is>
       </c>
-      <c r="B42" s="4" t="n">
+      <c r="B42" s="3" t="n">
         <v>43381</v>
       </c>
       <c r="C42" t="inlineStr"/>
@@ -2017,7 +2016,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvRelay</t>
         </is>
       </c>
-      <c r="B43" s="4" t="n">
+      <c r="B43" s="3" t="n">
         <v>43399</v>
       </c>
       <c r="C43" t="inlineStr"/>
@@ -2049,7 +2048,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvRelay</t>
         </is>
       </c>
-      <c r="B44" s="4" t="n">
+      <c r="B44" s="3" t="n">
         <v>43430</v>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -2083,7 +2082,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvRelay</t>
         </is>
       </c>
-      <c r="B45" s="4" t="n">
+      <c r="B45" s="3" t="n">
         <v>43440</v>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -2117,7 +2116,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvRelay</t>
         </is>
       </c>
-      <c r="B46" s="4" t="n">
+      <c r="B46" s="3" t="n">
         <v>43446</v>
       </c>
       <c r="C46" t="inlineStr"/>
@@ -2151,7 +2150,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvRelay</t>
         </is>
       </c>
-      <c r="B47" s="4" t="n">
+      <c r="B47" s="3" t="n">
         <v>43455</v>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -2185,7 +2184,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvRelay</t>
         </is>
       </c>
-      <c r="B48" s="4" t="n">
+      <c r="B48" s="3" t="n">
         <v>43480</v>
       </c>
       <c r="C48" t="inlineStr">
@@ -2223,7 +2222,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvRelay</t>
         </is>
       </c>
-      <c r="B49" s="4" t="n">
+      <c r="B49" s="3" t="n">
         <v>43495</v>
       </c>
       <c r="C49" t="inlineStr">
@@ -2277,7 +2276,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvCalabro</t>
         </is>
       </c>
-      <c r="B50" s="4" t="n">
+      <c r="B50" s="3" t="n">
         <v>43270</v>
       </c>
       <c r="C50" t="inlineStr"/>
@@ -2311,7 +2310,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvCalabro</t>
         </is>
       </c>
-      <c r="B51" s="4" t="n">
+      <c r="B51" s="3" t="n">
         <v>43290</v>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -2345,7 +2344,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvCalabro</t>
         </is>
       </c>
-      <c r="B52" s="4" t="n">
+      <c r="B52" s="3" t="n">
         <v>43306</v>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -2379,7 +2378,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvCalabro</t>
         </is>
       </c>
-      <c r="B53" s="4" t="n">
+      <c r="B53" s="3" t="n">
         <v>43341</v>
       </c>
       <c r="C53" t="inlineStr"/>
@@ -2413,7 +2412,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvCalabro</t>
         </is>
       </c>
-      <c r="B54" s="4" t="n">
+      <c r="B54" s="3" t="n">
         <v>43381</v>
       </c>
       <c r="C54" t="inlineStr"/>
@@ -2447,7 +2446,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvCalabro</t>
         </is>
       </c>
-      <c r="B55" s="4" t="n">
+      <c r="B55" s="3" t="n">
         <v>43399</v>
       </c>
       <c r="C55" t="inlineStr"/>
@@ -2479,7 +2478,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvCalabro</t>
         </is>
       </c>
-      <c r="B56" s="4" t="n">
+      <c r="B56" s="3" t="n">
         <v>43430</v>
       </c>
       <c r="C56" t="inlineStr"/>
@@ -2513,7 +2512,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvCalabro</t>
         </is>
       </c>
-      <c r="B57" s="4" t="n">
+      <c r="B57" s="3" t="n">
         <v>43440</v>
       </c>
       <c r="C57" t="inlineStr"/>
@@ -2547,7 +2546,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvCalabro</t>
         </is>
       </c>
-      <c r="B58" s="4" t="n">
+      <c r="B58" s="3" t="n">
         <v>43446</v>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -2581,7 +2580,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvCalabro</t>
         </is>
       </c>
-      <c r="B59" s="4" t="n">
+      <c r="B59" s="3" t="n">
         <v>43455</v>
       </c>
       <c r="C59" t="inlineStr"/>
@@ -2615,7 +2614,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvCalabro</t>
         </is>
       </c>
-      <c r="B60" s="4" t="n">
+      <c r="B60" s="3" t="n">
         <v>43480</v>
       </c>
       <c r="C60" t="inlineStr">
@@ -2653,7 +2652,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvCalabro</t>
         </is>
       </c>
-      <c r="B61" s="4" t="n">
+      <c r="B61" s="3" t="n">
         <v>43495</v>
       </c>
       <c r="C61" t="inlineStr">
@@ -2707,7 +2706,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvAnapurna</t>
         </is>
       </c>
-      <c r="B62" s="4" t="n">
+      <c r="B62" s="3" t="n">
         <v>43237</v>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -2741,7 +2740,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvAnapurna</t>
         </is>
       </c>
-      <c r="B63" s="4" t="n">
+      <c r="B63" s="3" t="n">
         <v>43270</v>
       </c>
       <c r="C63" t="inlineStr"/>
@@ -2775,7 +2774,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvAnapurna</t>
         </is>
       </c>
-      <c r="B64" s="4" t="n">
+      <c r="B64" s="3" t="n">
         <v>43290</v>
       </c>
       <c r="C64" t="inlineStr"/>
@@ -2809,7 +2808,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvAnapurna</t>
         </is>
       </c>
-      <c r="B65" s="4" t="n">
+      <c r="B65" s="3" t="n">
         <v>43306</v>
       </c>
       <c r="C65" t="inlineStr"/>
@@ -2843,7 +2842,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvAnapurna</t>
         </is>
       </c>
-      <c r="B66" s="4" t="n">
+      <c r="B66" s="3" t="n">
         <v>43341</v>
       </c>
       <c r="C66" t="inlineStr"/>
@@ -2877,7 +2876,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvAnapurna</t>
         </is>
       </c>
-      <c r="B67" s="4" t="n">
+      <c r="B67" s="3" t="n">
         <v>43364</v>
       </c>
       <c r="C67" t="inlineStr"/>
@@ -2911,7 +2910,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvAnapurna</t>
         </is>
       </c>
-      <c r="B68" s="4" t="n">
+      <c r="B68" s="3" t="n">
         <v>43381</v>
       </c>
       <c r="C68" t="inlineStr"/>
@@ -2945,7 +2944,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvAnapurna</t>
         </is>
       </c>
-      <c r="B69" s="4" t="n">
+      <c r="B69" s="3" t="n">
         <v>43413</v>
       </c>
       <c r="C69" t="inlineStr"/>
@@ -2979,7 +2978,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvAnapurna</t>
         </is>
       </c>
-      <c r="B70" s="4" t="n">
+      <c r="B70" s="3" t="n">
         <v>43440</v>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -3013,7 +3012,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvAnapurna</t>
         </is>
       </c>
-      <c r="B71" s="4" t="n">
+      <c r="B71" s="3" t="n">
         <v>43446</v>
       </c>
       <c r="C71" t="inlineStr"/>
@@ -3047,7 +3046,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvAnapurna</t>
         </is>
       </c>
-      <c r="B72" s="4" t="n">
+      <c r="B72" s="3" t="n">
         <v>43455</v>
       </c>
       <c r="C72" t="inlineStr"/>
@@ -3081,7 +3080,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvAnapurna</t>
         </is>
       </c>
-      <c r="B73" s="4" t="n">
+      <c r="B73" s="3" t="n">
         <v>43480</v>
       </c>
       <c r="C73" t="inlineStr">
@@ -3119,7 +3118,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvAnapurna</t>
         </is>
       </c>
-      <c r="B74" s="4" t="n">
+      <c r="B74" s="3" t="n">
         <v>43495</v>
       </c>
       <c r="C74" t="inlineStr">
@@ -3173,7 +3172,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvKittyhawk</t>
         </is>
       </c>
-      <c r="B75" s="4" t="n">
+      <c r="B75" s="3" t="n">
         <v>43237</v>
       </c>
       <c r="C75" t="inlineStr"/>
@@ -3207,7 +3206,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvKittyhawk</t>
         </is>
       </c>
-      <c r="B76" s="4" t="n">
+      <c r="B76" s="3" t="n">
         <v>43270</v>
       </c>
       <c r="C76" t="inlineStr"/>
@@ -3241,7 +3240,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvKittyhawk</t>
         </is>
       </c>
-      <c r="B77" s="4" t="n">
+      <c r="B77" s="3" t="n">
         <v>43290</v>
       </c>
       <c r="C77" t="inlineStr"/>
@@ -3275,7 +3274,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvKittyhawk</t>
         </is>
       </c>
-      <c r="B78" s="4" t="n">
+      <c r="B78" s="3" t="n">
         <v>43306</v>
       </c>
       <c r="C78" t="inlineStr"/>
@@ -3309,7 +3308,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvKittyhawk</t>
         </is>
       </c>
-      <c r="B79" s="4" t="n">
+      <c r="B79" s="3" t="n">
         <v>43341</v>
       </c>
       <c r="C79" t="inlineStr"/>
@@ -3343,7 +3342,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvKittyhawk</t>
         </is>
       </c>
-      <c r="B80" s="4" t="n">
+      <c r="B80" s="3" t="n">
         <v>43364</v>
       </c>
       <c r="C80" t="inlineStr"/>
@@ -3377,7 +3376,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvKittyhawk</t>
         </is>
       </c>
-      <c r="B81" s="4" t="n">
+      <c r="B81" s="3" t="n">
         <v>43381</v>
       </c>
       <c r="C81" t="inlineStr"/>
@@ -3411,7 +3410,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvKittyhawk</t>
         </is>
       </c>
-      <c r="B82" s="4" t="n">
+      <c r="B82" s="3" t="n">
         <v>43413</v>
       </c>
       <c r="C82" t="inlineStr"/>
@@ -3445,7 +3444,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvKittyhawk</t>
         </is>
       </c>
-      <c r="B83" s="4" t="n">
+      <c r="B83" s="3" t="n">
         <v>43440</v>
       </c>
       <c r="C83" t="inlineStr"/>
@@ -3479,7 +3478,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvKittyhawk</t>
         </is>
       </c>
-      <c r="B84" s="4" t="n">
+      <c r="B84" s="3" t="n">
         <v>43446</v>
       </c>
       <c r="C84" t="inlineStr"/>
@@ -3513,7 +3512,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvKittyhawk</t>
         </is>
       </c>
-      <c r="B85" s="4" t="n">
+      <c r="B85" s="3" t="n">
         <v>43455</v>
       </c>
       <c r="C85" t="inlineStr"/>
@@ -3547,7 +3546,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvKittyhawk</t>
         </is>
       </c>
-      <c r="B86" s="4" t="n">
+      <c r="B86" s="3" t="n">
         <v>43480</v>
       </c>
       <c r="C86" t="inlineStr">
@@ -3585,7 +3584,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvKittyhawk</t>
         </is>
       </c>
-      <c r="B87" s="4" t="n">
+      <c r="B87" s="3" t="n">
         <v>43495</v>
       </c>
       <c r="C87" t="inlineStr">
@@ -3639,7 +3638,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvRelay</t>
         </is>
       </c>
-      <c r="B88" s="4" t="n">
+      <c r="B88" s="3" t="n">
         <v>43237</v>
       </c>
       <c r="C88" t="inlineStr"/>
@@ -3673,7 +3672,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvRelay</t>
         </is>
       </c>
-      <c r="B89" s="4" t="n">
+      <c r="B89" s="3" t="n">
         <v>43270</v>
       </c>
       <c r="C89" t="inlineStr"/>
@@ -3707,7 +3706,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvRelay</t>
         </is>
       </c>
-      <c r="B90" s="4" t="n">
+      <c r="B90" s="3" t="n">
         <v>43290</v>
       </c>
       <c r="C90" t="inlineStr"/>
@@ -3741,7 +3740,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvRelay</t>
         </is>
       </c>
-      <c r="B91" s="4" t="n">
+      <c r="B91" s="3" t="n">
         <v>43306</v>
       </c>
       <c r="C91" t="inlineStr"/>
@@ -3775,7 +3774,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvRelay</t>
         </is>
       </c>
-      <c r="B92" s="4" t="n">
+      <c r="B92" s="3" t="n">
         <v>43341</v>
       </c>
       <c r="C92" t="inlineStr"/>
@@ -3809,7 +3808,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvRelay</t>
         </is>
       </c>
-      <c r="B93" s="4" t="n">
+      <c r="B93" s="3" t="n">
         <v>43364</v>
       </c>
       <c r="C93" t="inlineStr"/>
@@ -3843,7 +3842,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvRelay</t>
         </is>
       </c>
-      <c r="B94" s="4" t="n">
+      <c r="B94" s="3" t="n">
         <v>43381</v>
       </c>
       <c r="C94" t="inlineStr"/>
@@ -3877,7 +3876,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvRelay</t>
         </is>
       </c>
-      <c r="B95" s="4" t="n">
+      <c r="B95" s="3" t="n">
         <v>43430</v>
       </c>
       <c r="C95" t="inlineStr"/>
@@ -3911,7 +3910,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvRelay</t>
         </is>
       </c>
-      <c r="B96" s="4" t="n">
+      <c r="B96" s="3" t="n">
         <v>43440</v>
       </c>
       <c r="C96" t="inlineStr"/>
@@ -3945,7 +3944,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvRelay</t>
         </is>
       </c>
-      <c r="B97" s="4" t="n">
+      <c r="B97" s="3" t="n">
         <v>43446</v>
       </c>
       <c r="C97" t="inlineStr"/>
@@ -3979,7 +3978,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvRelay</t>
         </is>
       </c>
-      <c r="B98" s="4" t="n">
+      <c r="B98" s="3" t="n">
         <v>43455</v>
       </c>
       <c r="C98" t="inlineStr"/>
@@ -4013,7 +4012,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvRelay</t>
         </is>
       </c>
-      <c r="B99" s="4" t="n">
+      <c r="B99" s="3" t="n">
         <v>43480</v>
       </c>
       <c r="C99" t="inlineStr">
@@ -4051,7 +4050,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvRelay</t>
         </is>
       </c>
-      <c r="B100" s="4" t="n">
+      <c r="B100" s="3" t="n">
         <v>43495</v>
       </c>
       <c r="C100" t="inlineStr">
@@ -4105,7 +4104,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B101" s="4" t="n">
+      <c r="B101" s="3" t="n">
         <v>43237</v>
       </c>
       <c r="C101" t="inlineStr"/>
@@ -4139,7 +4138,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B102" s="4" t="n">
+      <c r="B102" s="3" t="n">
         <v>43270</v>
       </c>
       <c r="C102" t="inlineStr"/>
@@ -4173,7 +4172,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B103" s="4" t="n">
+      <c r="B103" s="3" t="n">
         <v>43290</v>
       </c>
       <c r="C103" t="inlineStr"/>
@@ -4207,7 +4206,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B104" s="4" t="n">
+      <c r="B104" s="3" t="n">
         <v>43306</v>
       </c>
       <c r="C104" t="inlineStr"/>
@@ -4241,7 +4240,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B105" s="4" t="n">
+      <c r="B105" s="3" t="n">
         <v>43341</v>
       </c>
       <c r="C105" t="inlineStr"/>
@@ -4275,7 +4274,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B106" s="4" t="n">
+      <c r="B106" s="3" t="n">
         <v>43364</v>
       </c>
       <c r="C106" t="inlineStr"/>
@@ -4309,7 +4308,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B107" s="4" t="n">
+      <c r="B107" s="3" t="n">
         <v>43381</v>
       </c>
       <c r="C107" t="inlineStr"/>
@@ -4343,7 +4342,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B108" s="4" t="n">
+      <c r="B108" s="3" t="n">
         <v>43413</v>
       </c>
       <c r="C108" t="inlineStr"/>
@@ -4377,7 +4376,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B109" s="4" t="n">
+      <c r="B109" s="3" t="n">
         <v>43440</v>
       </c>
       <c r="C109" t="inlineStr"/>
@@ -4411,7 +4410,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B110" s="4" t="n">
+      <c r="B110" s="3" t="n">
         <v>43446</v>
       </c>
       <c r="C110" t="inlineStr"/>
@@ -4445,7 +4444,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B111" s="4" t="n">
+      <c r="B111" s="3" t="n">
         <v>43455</v>
       </c>
       <c r="C111" t="inlineStr"/>
@@ -4479,7 +4478,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B112" s="4" t="n">
+      <c r="B112" s="3" t="n">
         <v>43480</v>
       </c>
       <c r="C112" t="inlineStr">
@@ -4517,7 +4516,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B113" s="4" t="n">
+      <c r="B113" s="3" t="n">
         <v>43495</v>
       </c>
       <c r="C113" t="inlineStr">
@@ -4571,7 +4570,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvCalabro</t>
         </is>
       </c>
-      <c r="B114" s="4" t="n">
+      <c r="B114" s="3" t="n">
         <v>43237</v>
       </c>
       <c r="C114" t="inlineStr"/>
@@ -4605,7 +4604,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvCalabro</t>
         </is>
       </c>
-      <c r="B115" s="4" t="n">
+      <c r="B115" s="3" t="n">
         <v>43270</v>
       </c>
       <c r="C115" t="inlineStr"/>
@@ -4639,7 +4638,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvCalabro</t>
         </is>
       </c>
-      <c r="B116" s="4" t="n">
+      <c r="B116" s="3" t="n">
         <v>43290</v>
       </c>
       <c r="C116" t="inlineStr"/>
@@ -4673,7 +4672,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvCalabro</t>
         </is>
       </c>
-      <c r="B117" s="4" t="n">
+      <c r="B117" s="3" t="n">
         <v>43306</v>
       </c>
       <c r="C117" t="inlineStr"/>
@@ -4707,7 +4706,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvCalabro</t>
         </is>
       </c>
-      <c r="B118" s="4" t="n">
+      <c r="B118" s="3" t="n">
         <v>43341</v>
       </c>
       <c r="C118" t="inlineStr"/>
@@ -4741,7 +4740,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvCalabro</t>
         </is>
       </c>
-      <c r="B119" s="4" t="n">
+      <c r="B119" s="3" t="n">
         <v>43364</v>
       </c>
       <c r="C119" t="inlineStr"/>
@@ -4775,7 +4774,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvCalabro</t>
         </is>
       </c>
-      <c r="B120" s="4" t="n">
+      <c r="B120" s="3" t="n">
         <v>43381</v>
       </c>
       <c r="C120" t="inlineStr"/>
@@ -4809,7 +4808,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvCalabro</t>
         </is>
       </c>
-      <c r="B121" s="4" t="n">
+      <c r="B121" s="3" t="n">
         <v>43430</v>
       </c>
       <c r="C121" t="inlineStr"/>
@@ -4843,7 +4842,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvCalabro</t>
         </is>
       </c>
-      <c r="B122" s="4" t="n">
+      <c r="B122" s="3" t="n">
         <v>43440</v>
       </c>
       <c r="C122" t="inlineStr"/>
@@ -4877,7 +4876,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvCalabro</t>
         </is>
       </c>
-      <c r="B123" s="4" t="n">
+      <c r="B123" s="3" t="n">
         <v>43446</v>
       </c>
       <c r="C123" t="inlineStr"/>
@@ -4911,7 +4910,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvCalabro</t>
         </is>
       </c>
-      <c r="B124" s="4" t="n">
+      <c r="B124" s="3" t="n">
         <v>43455</v>
       </c>
       <c r="C124" t="inlineStr"/>
@@ -4945,7 +4944,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvCalabro</t>
         </is>
       </c>
-      <c r="B125" s="4" t="n">
+      <c r="B125" s="3" t="n">
         <v>43480</v>
       </c>
       <c r="C125" t="inlineStr">
@@ -4983,7 +4982,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvCalabro</t>
         </is>
       </c>
-      <c r="B126" s="4" t="n">
+      <c r="B126" s="3" t="n">
         <v>43495</v>
       </c>
       <c r="C126" t="inlineStr">

--- a/Tests/Validation/Wheat/data/FAR HYC W18-02-2a.xlsx
+++ b/Tests/Validation/Wheat/data/FAR HYC W18-02-2a.xlsx
@@ -17,8 +17,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,13 +58,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -481,7 +482,7 @@
       </c>
       <c r="I1" s="2" t="inlineStr">
         <is>
-          <t>NDVIModel.Script.NDVI</t>
+          <t>Spectral.NDVI</t>
         </is>
       </c>
       <c r="J1" s="2" t="inlineStr">
@@ -556,7 +557,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvAnapurna</t>
         </is>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="4" t="n">
         <v>43270</v>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -590,7 +591,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvAnapurna</t>
         </is>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="4" t="n">
         <v>43290</v>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -624,7 +625,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvAnapurna</t>
         </is>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="4" t="n">
         <v>43306</v>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -658,7 +659,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvAnapurna</t>
         </is>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="4" t="n">
         <v>43341</v>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -692,7 +693,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvAnapurna</t>
         </is>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="4" t="n">
         <v>43381</v>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -726,7 +727,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvAnapurna</t>
         </is>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="4" t="n">
         <v>43399</v>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -758,7 +759,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvAnapurna</t>
         </is>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="4" t="n">
         <v>43413</v>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -792,7 +793,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvAnapurna</t>
         </is>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B9" s="4" t="n">
         <v>43440</v>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -826,7 +827,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvAnapurna</t>
         </is>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B10" s="4" t="n">
         <v>43446</v>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -860,7 +861,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvAnapurna</t>
         </is>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B11" s="4" t="n">
         <v>43455</v>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -894,7 +895,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvAnapurna</t>
         </is>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B12" s="4" t="n">
         <v>43480</v>
       </c>
       <c r="C12" t="inlineStr">
@@ -932,7 +933,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvAnapurna</t>
         </is>
       </c>
-      <c r="B13" s="3" t="n">
+      <c r="B13" s="4" t="n">
         <v>43495</v>
       </c>
       <c r="C13" t="inlineStr">
@@ -986,7 +987,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvAccroc</t>
         </is>
       </c>
-      <c r="B14" s="3" t="n">
+      <c r="B14" s="4" t="n">
         <v>43270</v>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -1020,7 +1021,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvAccroc</t>
         </is>
       </c>
-      <c r="B15" s="3" t="n">
+      <c r="B15" s="4" t="n">
         <v>43290</v>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -1054,7 +1055,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvAccroc</t>
         </is>
       </c>
-      <c r="B16" s="3" t="n">
+      <c r="B16" s="4" t="n">
         <v>43306</v>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -1088,7 +1089,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvAccroc</t>
         </is>
       </c>
-      <c r="B17" s="3" t="n">
+      <c r="B17" s="4" t="n">
         <v>43341</v>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -1122,7 +1123,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvAccroc</t>
         </is>
       </c>
-      <c r="B18" s="3" t="n">
+      <c r="B18" s="4" t="n">
         <v>43381</v>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -1156,7 +1157,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvAccroc</t>
         </is>
       </c>
-      <c r="B19" s="3" t="n">
+      <c r="B19" s="4" t="n">
         <v>43399</v>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -1188,7 +1189,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvAccroc</t>
         </is>
       </c>
-      <c r="B20" s="3" t="n">
+      <c r="B20" s="4" t="n">
         <v>43413</v>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -1222,7 +1223,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvAccroc</t>
         </is>
       </c>
-      <c r="B21" s="3" t="n">
+      <c r="B21" s="4" t="n">
         <v>43440</v>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -1256,7 +1257,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvAccroc</t>
         </is>
       </c>
-      <c r="B22" s="3" t="n">
+      <c r="B22" s="4" t="n">
         <v>43446</v>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -1290,7 +1291,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvAccroc</t>
         </is>
       </c>
-      <c r="B23" s="3" t="n">
+      <c r="B23" s="4" t="n">
         <v>43455</v>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -1324,7 +1325,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvAccroc</t>
         </is>
       </c>
-      <c r="B24" s="3" t="n">
+      <c r="B24" s="4" t="n">
         <v>43480</v>
       </c>
       <c r="C24" t="inlineStr">
@@ -1362,7 +1363,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvAccroc</t>
         </is>
       </c>
-      <c r="B25" s="3" t="n">
+      <c r="B25" s="4" t="n">
         <v>43495</v>
       </c>
       <c r="C25" t="inlineStr">
@@ -1416,7 +1417,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvKittyhawk</t>
         </is>
       </c>
-      <c r="B26" s="3" t="n">
+      <c r="B26" s="4" t="n">
         <v>43270</v>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -1450,7 +1451,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvKittyhawk</t>
         </is>
       </c>
-      <c r="B27" s="3" t="n">
+      <c r="B27" s="4" t="n">
         <v>43290</v>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -1484,7 +1485,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvKittyhawk</t>
         </is>
       </c>
-      <c r="B28" s="3" t="n">
+      <c r="B28" s="4" t="n">
         <v>43306</v>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -1518,7 +1519,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvKittyhawk</t>
         </is>
       </c>
-      <c r="B29" s="3" t="n">
+      <c r="B29" s="4" t="n">
         <v>43341</v>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -1552,7 +1553,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvKittyhawk</t>
         </is>
       </c>
-      <c r="B30" s="3" t="n">
+      <c r="B30" s="4" t="n">
         <v>43381</v>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -1586,7 +1587,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvKittyhawk</t>
         </is>
       </c>
-      <c r="B31" s="3" t="n">
+      <c r="B31" s="4" t="n">
         <v>43399</v>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -1618,7 +1619,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvKittyhawk</t>
         </is>
       </c>
-      <c r="B32" s="3" t="n">
+      <c r="B32" s="4" t="n">
         <v>43413</v>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -1652,7 +1653,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvKittyhawk</t>
         </is>
       </c>
-      <c r="B33" s="3" t="n">
+      <c r="B33" s="4" t="n">
         <v>43440</v>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -1686,7 +1687,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvKittyhawk</t>
         </is>
       </c>
-      <c r="B34" s="3" t="n">
+      <c r="B34" s="4" t="n">
         <v>43446</v>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -1720,7 +1721,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvKittyhawk</t>
         </is>
       </c>
-      <c r="B35" s="3" t="n">
+      <c r="B35" s="4" t="n">
         <v>43455</v>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -1754,7 +1755,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvKittyhawk</t>
         </is>
       </c>
-      <c r="B36" s="3" t="n">
+      <c r="B36" s="4" t="n">
         <v>43480</v>
       </c>
       <c r="C36" t="inlineStr">
@@ -1792,7 +1793,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvKittyhawk</t>
         </is>
       </c>
-      <c r="B37" s="3" t="n">
+      <c r="B37" s="4" t="n">
         <v>43495</v>
       </c>
       <c r="C37" t="inlineStr">
@@ -1846,7 +1847,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvRelay</t>
         </is>
       </c>
-      <c r="B38" s="3" t="n">
+      <c r="B38" s="4" t="n">
         <v>43270</v>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -1880,7 +1881,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvRelay</t>
         </is>
       </c>
-      <c r="B39" s="3" t="n">
+      <c r="B39" s="4" t="n">
         <v>43290</v>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -1914,7 +1915,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvRelay</t>
         </is>
       </c>
-      <c r="B40" s="3" t="n">
+      <c r="B40" s="4" t="n">
         <v>43306</v>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -1948,7 +1949,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvRelay</t>
         </is>
       </c>
-      <c r="B41" s="3" t="n">
+      <c r="B41" s="4" t="n">
         <v>43341</v>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -1982,7 +1983,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvRelay</t>
         </is>
       </c>
-      <c r="B42" s="3" t="n">
+      <c r="B42" s="4" t="n">
         <v>43381</v>
       </c>
       <c r="C42" t="inlineStr"/>
@@ -2016,7 +2017,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvRelay</t>
         </is>
       </c>
-      <c r="B43" s="3" t="n">
+      <c r="B43" s="4" t="n">
         <v>43399</v>
       </c>
       <c r="C43" t="inlineStr"/>
@@ -2048,7 +2049,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvRelay</t>
         </is>
       </c>
-      <c r="B44" s="3" t="n">
+      <c r="B44" s="4" t="n">
         <v>43430</v>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -2082,7 +2083,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvRelay</t>
         </is>
       </c>
-      <c r="B45" s="3" t="n">
+      <c r="B45" s="4" t="n">
         <v>43440</v>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -2116,7 +2117,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvRelay</t>
         </is>
       </c>
-      <c r="B46" s="3" t="n">
+      <c r="B46" s="4" t="n">
         <v>43446</v>
       </c>
       <c r="C46" t="inlineStr"/>
@@ -2150,7 +2151,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvRelay</t>
         </is>
       </c>
-      <c r="B47" s="3" t="n">
+      <c r="B47" s="4" t="n">
         <v>43455</v>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -2184,7 +2185,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvRelay</t>
         </is>
       </c>
-      <c r="B48" s="3" t="n">
+      <c r="B48" s="4" t="n">
         <v>43480</v>
       </c>
       <c r="C48" t="inlineStr">
@@ -2222,7 +2223,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvRelay</t>
         </is>
       </c>
-      <c r="B49" s="3" t="n">
+      <c r="B49" s="4" t="n">
         <v>43495</v>
       </c>
       <c r="C49" t="inlineStr">
@@ -2276,7 +2277,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvCalabro</t>
         </is>
       </c>
-      <c r="B50" s="3" t="n">
+      <c r="B50" s="4" t="n">
         <v>43270</v>
       </c>
       <c r="C50" t="inlineStr"/>
@@ -2310,7 +2311,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvCalabro</t>
         </is>
       </c>
-      <c r="B51" s="3" t="n">
+      <c r="B51" s="4" t="n">
         <v>43290</v>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -2344,7 +2345,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvCalabro</t>
         </is>
       </c>
-      <c r="B52" s="3" t="n">
+      <c r="B52" s="4" t="n">
         <v>43306</v>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -2378,7 +2379,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvCalabro</t>
         </is>
       </c>
-      <c r="B53" s="3" t="n">
+      <c r="B53" s="4" t="n">
         <v>43341</v>
       </c>
       <c r="C53" t="inlineStr"/>
@@ -2412,7 +2413,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvCalabro</t>
         </is>
       </c>
-      <c r="B54" s="3" t="n">
+      <c r="B54" s="4" t="n">
         <v>43381</v>
       </c>
       <c r="C54" t="inlineStr"/>
@@ -2446,7 +2447,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvCalabro</t>
         </is>
       </c>
-      <c r="B55" s="3" t="n">
+      <c r="B55" s="4" t="n">
         <v>43399</v>
       </c>
       <c r="C55" t="inlineStr"/>
@@ -2478,7 +2479,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvCalabro</t>
         </is>
       </c>
-      <c r="B56" s="3" t="n">
+      <c r="B56" s="4" t="n">
         <v>43430</v>
       </c>
       <c r="C56" t="inlineStr"/>
@@ -2512,7 +2513,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvCalabro</t>
         </is>
       </c>
-      <c r="B57" s="3" t="n">
+      <c r="B57" s="4" t="n">
         <v>43440</v>
       </c>
       <c r="C57" t="inlineStr"/>
@@ -2546,7 +2547,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvCalabro</t>
         </is>
       </c>
-      <c r="B58" s="3" t="n">
+      <c r="B58" s="4" t="n">
         <v>43446</v>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -2580,7 +2581,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvCalabro</t>
         </is>
       </c>
-      <c r="B59" s="3" t="n">
+      <c r="B59" s="4" t="n">
         <v>43455</v>
       </c>
       <c r="C59" t="inlineStr"/>
@@ -2614,7 +2615,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvCalabro</t>
         </is>
       </c>
-      <c r="B60" s="3" t="n">
+      <c r="B60" s="4" t="n">
         <v>43480</v>
       </c>
       <c r="C60" t="inlineStr">
@@ -2652,7 +2653,7 @@
           <t>FAR HYC W18-02-2aPGRPGRCvCalabro</t>
         </is>
       </c>
-      <c r="B61" s="3" t="n">
+      <c r="B61" s="4" t="n">
         <v>43495</v>
       </c>
       <c r="C61" t="inlineStr">
@@ -2706,7 +2707,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvAnapurna</t>
         </is>
       </c>
-      <c r="B62" s="3" t="n">
+      <c r="B62" s="4" t="n">
         <v>43237</v>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -2740,7 +2741,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvAnapurna</t>
         </is>
       </c>
-      <c r="B63" s="3" t="n">
+      <c r="B63" s="4" t="n">
         <v>43270</v>
       </c>
       <c r="C63" t="inlineStr"/>
@@ -2774,7 +2775,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvAnapurna</t>
         </is>
       </c>
-      <c r="B64" s="3" t="n">
+      <c r="B64" s="4" t="n">
         <v>43290</v>
       </c>
       <c r="C64" t="inlineStr"/>
@@ -2808,7 +2809,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvAnapurna</t>
         </is>
       </c>
-      <c r="B65" s="3" t="n">
+      <c r="B65" s="4" t="n">
         <v>43306</v>
       </c>
       <c r="C65" t="inlineStr"/>
@@ -2842,7 +2843,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvAnapurna</t>
         </is>
       </c>
-      <c r="B66" s="3" t="n">
+      <c r="B66" s="4" t="n">
         <v>43341</v>
       </c>
       <c r="C66" t="inlineStr"/>
@@ -2876,7 +2877,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvAnapurna</t>
         </is>
       </c>
-      <c r="B67" s="3" t="n">
+      <c r="B67" s="4" t="n">
         <v>43364</v>
       </c>
       <c r="C67" t="inlineStr"/>
@@ -2910,7 +2911,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvAnapurna</t>
         </is>
       </c>
-      <c r="B68" s="3" t="n">
+      <c r="B68" s="4" t="n">
         <v>43381</v>
       </c>
       <c r="C68" t="inlineStr"/>
@@ -2944,7 +2945,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvAnapurna</t>
         </is>
       </c>
-      <c r="B69" s="3" t="n">
+      <c r="B69" s="4" t="n">
         <v>43413</v>
       </c>
       <c r="C69" t="inlineStr"/>
@@ -2978,7 +2979,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvAnapurna</t>
         </is>
       </c>
-      <c r="B70" s="3" t="n">
+      <c r="B70" s="4" t="n">
         <v>43440</v>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -3012,7 +3013,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvAnapurna</t>
         </is>
       </c>
-      <c r="B71" s="3" t="n">
+      <c r="B71" s="4" t="n">
         <v>43446</v>
       </c>
       <c r="C71" t="inlineStr"/>
@@ -3046,7 +3047,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvAnapurna</t>
         </is>
       </c>
-      <c r="B72" s="3" t="n">
+      <c r="B72" s="4" t="n">
         <v>43455</v>
       </c>
       <c r="C72" t="inlineStr"/>
@@ -3080,7 +3081,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvAnapurna</t>
         </is>
       </c>
-      <c r="B73" s="3" t="n">
+      <c r="B73" s="4" t="n">
         <v>43480</v>
       </c>
       <c r="C73" t="inlineStr">
@@ -3118,7 +3119,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvAnapurna</t>
         </is>
       </c>
-      <c r="B74" s="3" t="n">
+      <c r="B74" s="4" t="n">
         <v>43495</v>
       </c>
       <c r="C74" t="inlineStr">
@@ -3172,7 +3173,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvKittyhawk</t>
         </is>
       </c>
-      <c r="B75" s="3" t="n">
+      <c r="B75" s="4" t="n">
         <v>43237</v>
       </c>
       <c r="C75" t="inlineStr"/>
@@ -3206,7 +3207,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvKittyhawk</t>
         </is>
       </c>
-      <c r="B76" s="3" t="n">
+      <c r="B76" s="4" t="n">
         <v>43270</v>
       </c>
       <c r="C76" t="inlineStr"/>
@@ -3240,7 +3241,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvKittyhawk</t>
         </is>
       </c>
-      <c r="B77" s="3" t="n">
+      <c r="B77" s="4" t="n">
         <v>43290</v>
       </c>
       <c r="C77" t="inlineStr"/>
@@ -3274,7 +3275,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvKittyhawk</t>
         </is>
       </c>
-      <c r="B78" s="3" t="n">
+      <c r="B78" s="4" t="n">
         <v>43306</v>
       </c>
       <c r="C78" t="inlineStr"/>
@@ -3308,7 +3309,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvKittyhawk</t>
         </is>
       </c>
-      <c r="B79" s="3" t="n">
+      <c r="B79" s="4" t="n">
         <v>43341</v>
       </c>
       <c r="C79" t="inlineStr"/>
@@ -3342,7 +3343,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvKittyhawk</t>
         </is>
       </c>
-      <c r="B80" s="3" t="n">
+      <c r="B80" s="4" t="n">
         <v>43364</v>
       </c>
       <c r="C80" t="inlineStr"/>
@@ -3376,7 +3377,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvKittyhawk</t>
         </is>
       </c>
-      <c r="B81" s="3" t="n">
+      <c r="B81" s="4" t="n">
         <v>43381</v>
       </c>
       <c r="C81" t="inlineStr"/>
@@ -3410,7 +3411,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvKittyhawk</t>
         </is>
       </c>
-      <c r="B82" s="3" t="n">
+      <c r="B82" s="4" t="n">
         <v>43413</v>
       </c>
       <c r="C82" t="inlineStr"/>
@@ -3444,7 +3445,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvKittyhawk</t>
         </is>
       </c>
-      <c r="B83" s="3" t="n">
+      <c r="B83" s="4" t="n">
         <v>43440</v>
       </c>
       <c r="C83" t="inlineStr"/>
@@ -3478,7 +3479,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvKittyhawk</t>
         </is>
       </c>
-      <c r="B84" s="3" t="n">
+      <c r="B84" s="4" t="n">
         <v>43446</v>
       </c>
       <c r="C84" t="inlineStr"/>
@@ -3512,7 +3513,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvKittyhawk</t>
         </is>
       </c>
-      <c r="B85" s="3" t="n">
+      <c r="B85" s="4" t="n">
         <v>43455</v>
       </c>
       <c r="C85" t="inlineStr"/>
@@ -3546,7 +3547,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvKittyhawk</t>
         </is>
       </c>
-      <c r="B86" s="3" t="n">
+      <c r="B86" s="4" t="n">
         <v>43480</v>
       </c>
       <c r="C86" t="inlineStr">
@@ -3584,7 +3585,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvKittyhawk</t>
         </is>
       </c>
-      <c r="B87" s="3" t="n">
+      <c r="B87" s="4" t="n">
         <v>43495</v>
       </c>
       <c r="C87" t="inlineStr">
@@ -3638,7 +3639,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvRelay</t>
         </is>
       </c>
-      <c r="B88" s="3" t="n">
+      <c r="B88" s="4" t="n">
         <v>43237</v>
       </c>
       <c r="C88" t="inlineStr"/>
@@ -3672,7 +3673,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvRelay</t>
         </is>
       </c>
-      <c r="B89" s="3" t="n">
+      <c r="B89" s="4" t="n">
         <v>43270</v>
       </c>
       <c r="C89" t="inlineStr"/>
@@ -3706,7 +3707,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvRelay</t>
         </is>
       </c>
-      <c r="B90" s="3" t="n">
+      <c r="B90" s="4" t="n">
         <v>43290</v>
       </c>
       <c r="C90" t="inlineStr"/>
@@ -3740,7 +3741,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvRelay</t>
         </is>
       </c>
-      <c r="B91" s="3" t="n">
+      <c r="B91" s="4" t="n">
         <v>43306</v>
       </c>
       <c r="C91" t="inlineStr"/>
@@ -3774,7 +3775,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvRelay</t>
         </is>
       </c>
-      <c r="B92" s="3" t="n">
+      <c r="B92" s="4" t="n">
         <v>43341</v>
       </c>
       <c r="C92" t="inlineStr"/>
@@ -3808,7 +3809,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvRelay</t>
         </is>
       </c>
-      <c r="B93" s="3" t="n">
+      <c r="B93" s="4" t="n">
         <v>43364</v>
       </c>
       <c r="C93" t="inlineStr"/>
@@ -3842,7 +3843,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvRelay</t>
         </is>
       </c>
-      <c r="B94" s="3" t="n">
+      <c r="B94" s="4" t="n">
         <v>43381</v>
       </c>
       <c r="C94" t="inlineStr"/>
@@ -3876,7 +3877,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvRelay</t>
         </is>
       </c>
-      <c r="B95" s="3" t="n">
+      <c r="B95" s="4" t="n">
         <v>43430</v>
       </c>
       <c r="C95" t="inlineStr"/>
@@ -3910,7 +3911,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvRelay</t>
         </is>
       </c>
-      <c r="B96" s="3" t="n">
+      <c r="B96" s="4" t="n">
         <v>43440</v>
       </c>
       <c r="C96" t="inlineStr"/>
@@ -3944,7 +3945,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvRelay</t>
         </is>
       </c>
-      <c r="B97" s="3" t="n">
+      <c r="B97" s="4" t="n">
         <v>43446</v>
       </c>
       <c r="C97" t="inlineStr"/>
@@ -3978,7 +3979,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvRelay</t>
         </is>
       </c>
-      <c r="B98" s="3" t="n">
+      <c r="B98" s="4" t="n">
         <v>43455</v>
       </c>
       <c r="C98" t="inlineStr"/>
@@ -4012,7 +4013,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvRelay</t>
         </is>
       </c>
-      <c r="B99" s="3" t="n">
+      <c r="B99" s="4" t="n">
         <v>43480</v>
       </c>
       <c r="C99" t="inlineStr">
@@ -4050,7 +4051,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvRelay</t>
         </is>
       </c>
-      <c r="B100" s="3" t="n">
+      <c r="B100" s="4" t="n">
         <v>43495</v>
       </c>
       <c r="C100" t="inlineStr">
@@ -4104,7 +4105,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B101" s="3" t="n">
+      <c r="B101" s="4" t="n">
         <v>43237</v>
       </c>
       <c r="C101" t="inlineStr"/>
@@ -4138,7 +4139,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B102" s="3" t="n">
+      <c r="B102" s="4" t="n">
         <v>43270</v>
       </c>
       <c r="C102" t="inlineStr"/>
@@ -4172,7 +4173,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B103" s="3" t="n">
+      <c r="B103" s="4" t="n">
         <v>43290</v>
       </c>
       <c r="C103" t="inlineStr"/>
@@ -4206,7 +4207,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B104" s="3" t="n">
+      <c r="B104" s="4" t="n">
         <v>43306</v>
       </c>
       <c r="C104" t="inlineStr"/>
@@ -4240,7 +4241,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B105" s="3" t="n">
+      <c r="B105" s="4" t="n">
         <v>43341</v>
       </c>
       <c r="C105" t="inlineStr"/>
@@ -4274,7 +4275,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B106" s="3" t="n">
+      <c r="B106" s="4" t="n">
         <v>43364</v>
       </c>
       <c r="C106" t="inlineStr"/>
@@ -4308,7 +4309,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B107" s="3" t="n">
+      <c r="B107" s="4" t="n">
         <v>43381</v>
       </c>
       <c r="C107" t="inlineStr"/>
@@ -4342,7 +4343,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B108" s="3" t="n">
+      <c r="B108" s="4" t="n">
         <v>43413</v>
       </c>
       <c r="C108" t="inlineStr"/>
@@ -4376,7 +4377,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B109" s="3" t="n">
+      <c r="B109" s="4" t="n">
         <v>43440</v>
       </c>
       <c r="C109" t="inlineStr"/>
@@ -4410,7 +4411,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B110" s="3" t="n">
+      <c r="B110" s="4" t="n">
         <v>43446</v>
       </c>
       <c r="C110" t="inlineStr"/>
@@ -4444,7 +4445,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B111" s="3" t="n">
+      <c r="B111" s="4" t="n">
         <v>43455</v>
       </c>
       <c r="C111" t="inlineStr"/>
@@ -4478,7 +4479,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B112" s="3" t="n">
+      <c r="B112" s="4" t="n">
         <v>43480</v>
       </c>
       <c r="C112" t="inlineStr">
@@ -4516,7 +4517,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B113" s="3" t="n">
+      <c r="B113" s="4" t="n">
         <v>43495</v>
       </c>
       <c r="C113" t="inlineStr">
@@ -4570,7 +4571,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvCalabro</t>
         </is>
       </c>
-      <c r="B114" s="3" t="n">
+      <c r="B114" s="4" t="n">
         <v>43237</v>
       </c>
       <c r="C114" t="inlineStr"/>
@@ -4604,7 +4605,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvCalabro</t>
         </is>
       </c>
-      <c r="B115" s="3" t="n">
+      <c r="B115" s="4" t="n">
         <v>43270</v>
       </c>
       <c r="C115" t="inlineStr"/>
@@ -4638,7 +4639,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvCalabro</t>
         </is>
       </c>
-      <c r="B116" s="3" t="n">
+      <c r="B116" s="4" t="n">
         <v>43290</v>
       </c>
       <c r="C116" t="inlineStr"/>
@@ -4672,7 +4673,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvCalabro</t>
         </is>
       </c>
-      <c r="B117" s="3" t="n">
+      <c r="B117" s="4" t="n">
         <v>43306</v>
       </c>
       <c r="C117" t="inlineStr"/>
@@ -4706,7 +4707,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvCalabro</t>
         </is>
       </c>
-      <c r="B118" s="3" t="n">
+      <c r="B118" s="4" t="n">
         <v>43341</v>
       </c>
       <c r="C118" t="inlineStr"/>
@@ -4740,7 +4741,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvCalabro</t>
         </is>
       </c>
-      <c r="B119" s="3" t="n">
+      <c r="B119" s="4" t="n">
         <v>43364</v>
       </c>
       <c r="C119" t="inlineStr"/>
@@ -4774,7 +4775,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvCalabro</t>
         </is>
       </c>
-      <c r="B120" s="3" t="n">
+      <c r="B120" s="4" t="n">
         <v>43381</v>
       </c>
       <c r="C120" t="inlineStr"/>
@@ -4808,7 +4809,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvCalabro</t>
         </is>
       </c>
-      <c r="B121" s="3" t="n">
+      <c r="B121" s="4" t="n">
         <v>43430</v>
       </c>
       <c r="C121" t="inlineStr"/>
@@ -4842,7 +4843,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvCalabro</t>
         </is>
       </c>
-      <c r="B122" s="3" t="n">
+      <c r="B122" s="4" t="n">
         <v>43440</v>
       </c>
       <c r="C122" t="inlineStr"/>
@@ -4876,7 +4877,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvCalabro</t>
         </is>
       </c>
-      <c r="B123" s="3" t="n">
+      <c r="B123" s="4" t="n">
         <v>43446</v>
       </c>
       <c r="C123" t="inlineStr"/>
@@ -4910,7 +4911,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvCalabro</t>
         </is>
       </c>
-      <c r="B124" s="3" t="n">
+      <c r="B124" s="4" t="n">
         <v>43455</v>
       </c>
       <c r="C124" t="inlineStr"/>
@@ -4944,7 +4945,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvCalabro</t>
         </is>
       </c>
-      <c r="B125" s="3" t="n">
+      <c r="B125" s="4" t="n">
         <v>43480</v>
       </c>
       <c r="C125" t="inlineStr">
@@ -4982,7 +4983,7 @@
           <t>FAR HYC W18-02-2aPGRNoneCvCalabro</t>
         </is>
       </c>
-      <c r="B126" s="3" t="n">
+      <c r="B126" s="4" t="n">
         <v>43495</v>
       </c>
       <c r="C126" t="inlineStr">
